--- a/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>Counterparty SME_RETAIL</t>
   </si>
   <si>
-    <t>CUSTOMER_ANALYSIS_UNIT_SME_RETAIL</t>
-  </si>
-  <si>
     <t>BACK_TESTING_SME_RETAIL_V</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>LIB_EWS_SME_RETAIL.ExternalInfo(Param1);</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ANALYSIS_UNIT_SME_RET</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,7 +442,7 @@
         <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,7 +491,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,16 +972,16 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -267,6 +267,90 @@
   </si>
   <si>
     <t>CUSTOMER_ANALYSIS_UNIT_SME_RET</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_14</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_14</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_19</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_20</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_19</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_20</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_31</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_31</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_1</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_3</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_4</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_5</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_9</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_21</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_23</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_30</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_36</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_100</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_1</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_3</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_4</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_5</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_9</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_21</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_23</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_30</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_36</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_100</t>
   </si>
 </sst>
 </file>
@@ -903,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -993,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1088,7 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1111,16 +1195,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,16 +1212,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,16 +1229,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,16 +1246,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,16 +1263,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,16 +1280,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,16 +1297,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,16 +1314,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,16 +1331,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,16 +1348,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,16 +1365,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,16 +1382,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,16 +1399,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,16 +1416,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,16 +1433,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,16 +1450,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,16 +1467,254 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -351,6 +351,132 @@
   </si>
   <si>
     <t>SME_RETAIL_IND_100</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_102</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_103</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_104</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_105</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_106</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_107</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_108</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_114</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_115</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_116</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_117</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_162</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_163</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_164</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_165</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_166</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_167</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_168</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_169</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_170</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_171</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_102</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_103</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_104</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_105</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_106</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_107</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_108</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_114</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_115</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_116</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_117</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_162</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_163</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_164</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_165</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_166</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_167</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_168</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_169</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_170</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_171</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1327,7 @@
         <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>92</v>
@@ -1218,7 +1344,7 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>36</v>
@@ -1235,7 +1361,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>93</v>
@@ -1252,7 +1378,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>94</v>
@@ -1269,7 +1395,7 @@
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>95</v>
@@ -1286,7 +1412,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>38</v>
@@ -1303,7 +1429,7 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>40</v>
@@ -1320,7 +1446,7 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>96</v>
@@ -1337,7 +1463,7 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>42</v>
@@ -1354,7 +1480,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>44</v>
@@ -1371,7 +1497,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>46</v>
@@ -1388,7 +1514,7 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>48</v>
@@ -1405,7 +1531,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>75</v>
@@ -1422,7 +1548,7 @@
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>50</v>
@@ -1439,7 +1565,7 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>52</v>
@@ -1456,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>54</v>
@@ -1473,7 +1599,7 @@
         <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>78</v>
@@ -1490,7 +1616,7 @@
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>79</v>
@@ -1507,7 +1633,7 @@
         <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>97</v>
@@ -1524,7 +1650,7 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>56</v>
@@ -1541,7 +1667,7 @@
         <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>98</v>
@@ -1558,7 +1684,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>58</v>
@@ -1575,7 +1701,7 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>60</v>
@@ -1592,7 +1718,7 @@
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>62</v>
@@ -1609,7 +1735,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>64</v>
@@ -1626,7 +1752,7 @@
         <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>99</v>
@@ -1643,7 +1769,7 @@
         <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>81</v>
@@ -1660,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>66</v>
@@ -1677,7 +1803,7 @@
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>68</v>
@@ -1694,7 +1820,7 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>100</v>
@@ -1711,10 +1837,367 @@
         <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="186">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -477,6 +477,132 @@
   </si>
   <si>
     <t>COUNTERPARTY_SME_RETAIL_IND_171</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_200</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_203</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_52</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_53</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_60</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_65</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_66</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_218</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_219</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_70</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_71</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_72</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_80</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_83</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_90</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_91</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_92</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_93</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_94</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_150</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_151</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_200</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_203</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_52</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_53</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_60</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_65</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_66</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_218</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_219</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_70</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_71</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_72</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_80</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_83</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_90</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_91</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_92</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_93</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_94</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_150</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_151</t>
   </si>
 </sst>
 </file>
@@ -598,7 +724,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -652,7 +778,7 @@
         <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +827,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -755,7 +881,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,7 +935,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,6 +2324,363 @@
       </c>
       <c r="F58" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="292">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -603,6 +603,324 @@
   </si>
   <si>
     <t>SME_RETAIL_IND_151</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_201</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_202</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_204</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_205</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_206</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_207</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_208</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_209</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_234</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_211</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_235</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_212</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_213</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_214</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_215</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_216</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_217</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_220</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_221</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_222</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_223</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_224</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_225</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_226</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_227</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_232</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_233</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_250</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_251</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_252</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_253</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_254</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_255</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_256</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_257</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_258</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_259</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_260</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_261</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_262</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_263</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_264</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_265</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_266</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_267</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_268</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_269</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_270</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_271</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_272</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_273</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_274</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_201</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_202</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_204</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_205</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_206</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_207</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_208</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_209</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_234</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_211</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_235</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_212</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_213</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_214</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_215</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_216</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_217</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_220</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_221</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_222</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_223</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_224</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_225</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_226</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_227</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_232</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_233</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_250</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_251</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_252</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_253</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_254</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_255</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_256</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_257</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_258</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_259</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_260</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_261</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_262</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_263</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_264</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_265</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_266</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_267</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_268</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_269</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_270</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_271</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_272</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_273</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_274</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_900</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_900</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:E79"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,6 +2999,907 @@
       </c>
       <c r="F79" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" t="s">
+        <v>248</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" t="s">
+        <v>249</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" t="s">
+        <v>255</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>256</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" t="s">
+        <v>258</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" t="s">
+        <v>259</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" t="s">
+        <v>264</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>265</v>
+      </c>
+      <c r="C107" t="s">
+        <v>265</v>
+      </c>
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" t="s">
+        <v>266</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" t="s">
+        <v>267</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" t="s">
+        <v>270</v>
+      </c>
+      <c r="E112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" t="s">
+        <v>272</v>
+      </c>
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" t="s">
+        <v>273</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" t="s">
+        <v>274</v>
+      </c>
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" t="s">
+        <v>276</v>
+      </c>
+      <c r="E118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" t="s">
+        <v>277</v>
+      </c>
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" t="s">
+        <v>278</v>
+      </c>
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" t="s">
+        <v>279</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" t="s">
+        <v>280</v>
+      </c>
+      <c r="E122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" t="s">
+        <v>282</v>
+      </c>
+      <c r="E124" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>283</v>
+      </c>
+      <c r="C125" t="s">
+        <v>283</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" t="s">
+        <v>284</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" t="s">
+        <v>285</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>286</v>
+      </c>
+      <c r="C128" t="s">
+        <v>286</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>288</v>
+      </c>
+      <c r="C130" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" t="s">
+        <v>289</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/68_Inst_Analysis_Unit_SME_RETAIL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\AAAP\INTESA\Repository\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="294">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -921,12 +921,18 @@
   </si>
   <si>
     <t>COUNTERPARTY_SME_RETAIL_IND_900</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_SME_RETAIL_IND_120</t>
+  </si>
+  <si>
+    <t>SME_RETAIL_IND_120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,7 +1048,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1102,7 @@
         <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1151,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,7 +1205,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1259,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:A132"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,16 +2485,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2496,16 +2502,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,16 +2519,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2530,16 +2536,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,16 +2553,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,16 +2570,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,16 +2587,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2598,16 +2604,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,16 +2621,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
         <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,16 +2638,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
         <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,16 +2655,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,16 +2672,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,16 +2689,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2700,16 +2706,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2717,16 +2723,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2734,16 +2740,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,16 +2757,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2768,16 +2774,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
         <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2785,16 +2791,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2802,16 +2808,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,16 +2825,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
         <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,16 +2842,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,16 +2859,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
         <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2870,16 +2876,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
         <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,16 +2893,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
         <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2904,16 +2910,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
         <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,16 +2927,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
         <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2938,16 +2944,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
         <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,16 +2961,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
         <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,16 +2978,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
         <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,16 +2995,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
         <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,16 +3012,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
         <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3023,16 +3029,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
         <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3040,16 +3046,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
         <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3057,16 +3063,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,16 +3080,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E84" t="s">
         <v>27</v>
       </c>
       <c r="F84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,16 +3097,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
         <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,16 +3114,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
         <v>27</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,16 +3131,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E87" t="s">
         <v>27</v>
       </c>
       <c r="F87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,16 +3148,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
         <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3159,16 +3165,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
         <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,16 +3182,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
         <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3193,16 +3199,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
         <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3210,16 +3216,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E92" t="s">
         <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3227,16 +3233,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
         <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,16 +3250,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
         <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,16 +3267,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
         <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3278,16 +3284,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" t="s">
         <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,16 +3301,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" t="s">
         <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,16 +3318,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" t="s">
         <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,16 +3335,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E99" t="s">
         <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3346,16 +3352,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E100" t="s">
         <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3363,16 +3369,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E101" t="s">
         <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3380,16 +3386,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E102" t="s">
         <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,16 +3403,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" t="s">
         <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,16 +3420,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
         <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3431,16 +3437,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,16 +3454,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
         <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,16 +3471,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,16 +3488,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,16 +3505,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E109" t="s">
         <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,16 +3522,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3533,16 +3539,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3550,16 +3556,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E112" t="s">
         <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,16 +3573,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,16 +3590,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,16 +3607,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E115" t="s">
         <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3618,16 +3624,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E116" t="s">
         <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3635,16 +3641,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E117" t="s">
         <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,16 +3658,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,16 +3675,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
         <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,16 +3692,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3703,16 +3709,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E121" t="s">
         <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3720,16 +3726,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3737,16 +3743,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E123" t="s">
         <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3754,16 +3760,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E124" t="s">
         <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,16 +3777,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E125" t="s">
         <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3788,16 +3794,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E126" t="s">
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,16 +3811,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E127" t="s">
         <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3822,16 +3828,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C128" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3839,16 +3845,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E129" t="s">
         <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3856,16 +3862,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E130" t="s">
         <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3873,16 +3879,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C131" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E131" t="s">
         <v>27</v>
       </c>
       <c r="F131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,15 +3896,32 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
         <v>291</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>291</v>
       </c>
-      <c r="E132" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
         <v>290</v>
       </c>
     </row>
